--- a/data_processed/20250723/BTCUSDVOLSURFACE_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDVOLSURFACE_20250723.xlsx
@@ -9491,7 +9491,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20839,7 +20839,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250723/BTCUSDVOLSURFACE_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDVOLSURFACE_20250723.xlsx
@@ -19885,7 +19885,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19914,7 +19914,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19972,7 +19972,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20030,7 +20030,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20088,7 +20088,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20117,7 +20117,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20146,7 +20146,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -20204,7 +20204,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53330,7 +53330,7 @@
       </c>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53359,7 +53359,7 @@
       </c>
       <c r="G1978" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -53417,7 +53417,7 @@
       </c>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53446,7 +53446,7 @@
       </c>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53475,7 +53475,7 @@
       </c>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53504,7 +53504,7 @@
       </c>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
